--- a/biology/Botanique/Floralix/Floralix.xlsx
+++ b/biology/Botanique/Floralix/Floralix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Floralix est le premier parc à thème éphémère conçu en France, en 1967 à Orléans (Loiret).
@@ -513,13 +525,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Floralix ouvre le 25 avril 1967, sur une superficie de 3 hectares, dans le parc floral de la Source situé dans le quartier d'Orléans-la-Source, au sud du centre-ville d'Orléans à l'occasion des Floralies[1].
-Le parc a pour thème l'univers du héros gaulois de bandes-dessinées Astérix et préfigure la création du Parc Astérix à Plailly, dans l’Oise[1].
-Le parc est inauguré par Edgar Faure, alors ministre de l'Agriculture dans le gouvernement Georges Pompidou (4)[1].
-Les chanteurs français Michel Polnareff et Pierre Perret se produisent dans le parc[1].
-Le parc accueille 2,3 millions de visiteurs et ferme ses portes en octobre 1967[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floralix ouvre le 25 avril 1967, sur une superficie de 3 hectares, dans le parc floral de la Source situé dans le quartier d'Orléans-la-Source, au sud du centre-ville d'Orléans à l'occasion des Floralies.
+Le parc a pour thème l'univers du héros gaulois de bandes-dessinées Astérix et préfigure la création du Parc Astérix à Plailly, dans l’Oise.
+Le parc est inauguré par Edgar Faure, alors ministre de l'Agriculture dans le gouvernement Georges Pompidou (4).
+Les chanteurs français Michel Polnareff et Pierre Perret se produisent dans le parc.
+Le parc accueille 2,3 millions de visiteurs et ferme ses portes en octobre 1967.
 </t>
         </is>
       </c>
